--- a/data/trans_dic/LAWTONB_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Habitat-trans_dic.xlsx
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 39,95</t>
+          <t>7,77; 39,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 44,26</t>
+          <t>11,72; 47,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,64; 52,44</t>
+          <t>15,47; 54,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,94; 35,51</t>
+          <t>12,99; 35,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,26; 45,18</t>
+          <t>19,24; 44,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,64; 54,33</t>
+          <t>23,37; 52,57</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,35; 43,42</t>
+          <t>23,28; 42,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,96; 33,77</t>
+          <t>16,23; 33,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 25,77</t>
+          <t>12,5; 26,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,27 +815,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 45,81</t>
+          <t>29,53; 46,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,25; 41,08</t>
+          <t>25,9; 42,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 38,87</t>
+          <t>25,94; 38,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 37,13</t>
+          <t>25,59; 37,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,77; 32,69</t>
+          <t>21,31; 32,68</t>
         </is>
       </c>
     </row>
@@ -905,22 +905,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,8; 41,13</t>
+          <t>25,95; 40,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 37,18</t>
+          <t>21,5; 38,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 31,33</t>
+          <t>18,74; 31,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,35; 44,88</t>
+          <t>30,23; 44,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +930,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,75; 43,78</t>
+          <t>30,0; 44,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,4; 41,29</t>
+          <t>29,9; 40,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,76; 44,41</t>
+          <t>33,89; 44,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,53; 36,79</t>
+          <t>26,82; 36,29</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 29,15</t>
+          <t>13,36; 29,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 37,7</t>
+          <t>18,87; 38,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 31,2</t>
+          <t>15,84; 31,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,64; 42,64</t>
+          <t>26,76; 42,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,58; 46,18</t>
+          <t>29,3; 46,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,46; 46,97</t>
+          <t>29,53; 47,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,4; 34,28</t>
+          <t>22,85; 34,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 38,94</t>
+          <t>26,65; 38,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,39; 37,72</t>
+          <t>24,63; 37,45</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,28; 27,99</t>
+          <t>15,19; 28,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,56; 34,14</t>
+          <t>18,89; 34,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 23,35</t>
+          <t>12,24; 22,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,74; 40,94</t>
+          <t>28,26; 41,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,66; 40,01</t>
+          <t>28,0; 39,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,76; 41,09</t>
+          <t>27,27; 41,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,27; 33,73</t>
+          <t>24,35; 33,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,15; 35,46</t>
+          <t>25,99; 35,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,81; 32,03</t>
+          <t>22,44; 32,06</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>23,12; 30,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,12; 31,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>18,0; 24,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,77; 38,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,82; 42,23</t>
+          <t>34,77; 42,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,27</t>
+          <t>32,24; 39,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,16; 33,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,06</t>
+          <t>30,69; 36,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,63</t>
+          <t>26,79; 32,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 39,21</t>
+          <t>7,55; 38,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 47,22</t>
+          <t>11,93; 46,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 54,22</t>
+          <t>15,49; 52,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 45,65</t>
+          <t>11,69; 44,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 53,81</t>
+          <t>17,21; 55,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,59; 64,74</t>
+          <t>23,17; 66,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 35,93</t>
+          <t>13,1; 35,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 44,85</t>
+          <t>19,13; 44,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,37; 52,57</t>
+          <t>24,25; 52,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 42,4</t>
+          <t>23,65; 42,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 33,66</t>
+          <t>17,04; 33,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 26,0</t>
+          <t>12,36; 25,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,45; 40,73</t>
+          <t>23,23; 40,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 46,38</t>
+          <t>29,1; 45,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,9; 42,19</t>
+          <t>25,53; 41,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,94; 38,62</t>
+          <t>25,51; 38,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,59; 37,54</t>
+          <t>25,39; 37,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 32,68</t>
+          <t>21,19; 32,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 40,73</t>
+          <t>25,5; 41,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,5; 38,03</t>
+          <t>22,25; 37,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 31,65</t>
+          <t>18,72; 31,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,23; 44,68</t>
+          <t>30,59; 45,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,85; 53,77</t>
+          <t>38,78; 54,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 44,44</t>
+          <t>30,3; 43,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,9; 40,84</t>
+          <t>29,89; 40,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,89; 44,66</t>
+          <t>33,4; 44,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,82; 36,29</t>
+          <t>26,48; 36,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 29,59</t>
+          <t>13,44; 30,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 38,71</t>
+          <t>18,56; 38,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,84; 31,45</t>
+          <t>15,55; 30,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,76; 42,17</t>
+          <t>26,64; 43,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,3; 46,7</t>
+          <t>29,19; 46,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,53; 47,72</t>
+          <t>29,21; 46,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 34,8</t>
+          <t>22,73; 34,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 38,84</t>
+          <t>27,0; 39,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,63; 37,45</t>
+          <t>25,14; 37,66</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 28,05</t>
+          <t>14,84; 27,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 34,35</t>
+          <t>18,98; 34,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,24; 22,59</t>
+          <t>11,96; 22,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,26; 41,62</t>
+          <t>27,85; 41,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,0; 39,46</t>
+          <t>27,2; 39,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,27; 41,13</t>
+          <t>27,86; 40,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,35; 33,55</t>
+          <t>24,34; 33,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,99; 35,31</t>
+          <t>26,41; 35,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,44; 32,06</t>
+          <t>22,4; 31,61</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,51</t>
+          <t>22,54; 30,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,12; 31,07</t>
+          <t>22,73; 31,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 24,0</t>
+          <t>18,09; 24,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,77; 38,03</t>
+          <t>30,8; 38,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,77; 42,27</t>
+          <t>34,75; 42,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,24; 39,48</t>
+          <t>31,88; 39,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,16; 33,79</t>
+          <t>28,33; 33,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,69; 36,03</t>
+          <t>30,86; 36,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 32,06</t>
+          <t>27,05; 32,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 38,21</t>
+          <t>7,58; 39,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 46,69</t>
+          <t>12,28; 44,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 52,26</t>
+          <t>15,64; 52,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 44,12</t>
+          <t>11,43; 45,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 55,62</t>
+          <t>16,92; 53,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,17; 66,85</t>
+          <t>22,59; 64,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,1; 35,45</t>
+          <t>12,94; 35,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,13; 44,72</t>
+          <t>18,26; 45,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,25; 52,98</t>
+          <t>25,64; 54,33</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 42,56</t>
+          <t>23,35; 43,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 33,81</t>
+          <t>16,96; 33,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 25,12</t>
+          <t>12,4; 25,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,23; 40,41</t>
+          <t>23,45; 40,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,1; 45,43</t>
+          <t>29,53; 45,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,53; 41,32</t>
+          <t>26,25; 41,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,51; 38,26</t>
+          <t>25,44; 38,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 37,03</t>
+          <t>25,54; 37,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,19; 32,5</t>
+          <t>21,77; 32,69</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,5; 41,54</t>
+          <t>25,8; 41,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,25; 37,89</t>
+          <t>22,23; 37,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,72; 31,18</t>
+          <t>19,32; 31,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,59; 45,19</t>
+          <t>30,35; 44,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,78; 54,42</t>
+          <t>39,85; 53,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,3; 43,94</t>
+          <t>29,75; 43,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,89; 40,58</t>
+          <t>30,4; 41,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,4; 44,3</t>
+          <t>33,76; 44,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,48; 36,82</t>
+          <t>26,53; 36,79</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 30,0</t>
+          <t>13,31; 29,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 38,77</t>
+          <t>17,98; 37,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 30,54</t>
+          <t>15,87; 31,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,64; 43,02</t>
+          <t>26,64; 42,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,19; 46,47</t>
+          <t>28,58; 46,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,21; 46,86</t>
+          <t>29,46; 46,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 34,51</t>
+          <t>22,4; 34,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,0; 39,98</t>
+          <t>26,65; 38,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 37,66</t>
+          <t>25,39; 37,72</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 27,93</t>
+          <t>14,28; 27,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,98; 34,13</t>
+          <t>19,56; 34,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 22,91</t>
+          <t>12,19; 23,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,85; 41,31</t>
+          <t>27,74; 40,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,2; 39,89</t>
+          <t>27,66; 40,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,86; 40,73</t>
+          <t>27,76; 41,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,34; 33,97</t>
+          <t>24,27; 33,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>26,41; 35,71</t>
+          <t>26,15; 35,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,4; 31,61</t>
+          <t>22,81; 32,03</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,2</t>
+          <t>22,74; 30,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,12</t>
+          <t>22,85; 30,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,64</t>
+          <t>17,9; 24,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,09</t>
+          <t>30,92; 38,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,0</t>
+          <t>34,82; 42,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,88; 39,81</t>
+          <t>31,89; 39,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,33; 33,64</t>
+          <t>28,38; 33,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,86; 36,22</t>
+          <t>30,78; 36,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,05; 32,03</t>
+          <t>26,61; 31,63</t>
         </is>
       </c>
     </row>
